--- a/styled.xlsx
+++ b/styled.xlsx
@@ -69,7 +69,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -84,6 +84,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,7 +571,7 @@
           <t>Roy</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Masters</t>
         </is>

--- a/styled.xlsx
+++ b/styled.xlsx
@@ -48,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -63,16 +63,29 @@
       <bottom style="double"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -89,8 +102,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="header" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -474,17 +488,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Degree</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
@@ -496,7 +510,7 @@
           <t>Thomas</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Masters</t>
         </is>
@@ -511,7 +525,7 @@
           <t>Harry</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Phd</t>
         </is>
@@ -531,7 +545,7 @@
           <t>Bachelors</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>73</v>
       </c>
     </row>
@@ -546,7 +560,7 @@
           <t>Bachelors</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>64</v>
       </c>
     </row>
@@ -571,7 +585,7 @@
           <t>Roy</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Masters</t>
         </is>

--- a/styled.xlsx
+++ b/styled.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -39,13 +39,19 @@
       <color rgb="FFFF0000"/>
       <sz val="20"/>
     </font>
+    <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightHorizontal">
+        <fgColor rgb="00d7abcc"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -71,18 +77,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -102,9 +110,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="header" xfId="1" hidden="0"/>
+    <cellStyle name="highlight" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -493,24 +502,24 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Degree</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Thomas</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Masters</t>
         </is>
@@ -520,12 +529,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Harry</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Phd</t>
         </is>
@@ -535,7 +544,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Hannah</t>
         </is>
@@ -545,12 +554,12 @@
           <t>Bachelors</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Samuel</t>
         </is>
@@ -560,12 +569,12 @@
           <t>Bachelors</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Samara</t>
         </is>
@@ -580,12 +589,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Roy</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>Masters</t>
         </is>
@@ -595,7 +604,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Clay</t>
         </is>
@@ -610,7 +619,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Obrain</t>
         </is>
@@ -625,7 +634,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Elsa</t>
         </is>
@@ -640,7 +649,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Lakshya</t>
         </is>
@@ -655,7 +664,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Razaul</t>
         </is>
